--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="31020" windowHeight="17920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1680" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -320,58 +320,58 @@
     <t>entitlements</t>
   </si>
   <si>
+    <t>pre-delivery</t>
+  </si>
+  <si>
+    <t>Item Pack out of authorized range! Do not distribute this item pack. Would you like to scan a different item pack?</t>
+  </si>
+  <si>
+    <t>This item pack is within authorized range. Please deliver this item pack.</t>
+  </si>
+  <si>
+    <t>Please click the pencil icon to record delivery</t>
+  </si>
+  <si>
+    <t>Please continue to the next screen if you have clicked the pencil icon to record delivery</t>
+  </si>
+  <si>
+    <t>data('is_delivered') == 'true'</t>
+  </si>
+  <si>
+    <t>Since the entitlement was successfully delivered, we will now complete a brief delivery report.</t>
+  </si>
+  <si>
+    <t>What is the name of the delivery site?</t>
+  </si>
+  <si>
+    <t>Thank you for completing the post-delivery survey. Continue to the next screen to finalize.</t>
+  </si>
+  <si>
+    <t>Since no item pack was successfully delivery, we will not fill out a post-distribution report.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>data('is_delivered')</t>
+  </si>
+  <si>
+    <t>!data('is_delivered')</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
     <t>_id = ?</t>
   </si>
   <si>
-    <t>[data('delivery_id')]</t>
-  </si>
-  <si>
-    <t>'_id='+opendatakit.encodeURIDataElement('delivery_id')</t>
-  </si>
-  <si>
-    <t>pre-delivery</t>
-  </si>
-  <si>
-    <t>Item Pack out of authorized range! Do not distribute this item pack. Would you like to scan a different item pack?</t>
-  </si>
-  <si>
-    <t>This item pack is within authorized range. Please deliver this item pack.</t>
-  </si>
-  <si>
-    <t>Please click the pencil icon to record delivery</t>
-  </si>
-  <si>
-    <t>Please continue to the next screen if you have clicked the pencil icon to record delivery</t>
-  </si>
-  <si>
-    <t>data('is_delivered') == 'true'</t>
-  </si>
-  <si>
-    <t>Since the entitlement was successfully delivered, we will now complete a brief delivery report.</t>
-  </si>
-  <si>
-    <t>What is the name of the delivery site?</t>
-  </si>
-  <si>
-    <t>Thank you for completing the post-delivery survey. Continue to the next screen to finalize.</t>
-  </si>
-  <si>
-    <t>Since no item pack was successfully delivery, we will not fill out a post-distribution report.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>data('is_delivered')</t>
-  </si>
-  <si>
-    <t>!data('is_delivered')</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>Deliveries</t>
+    <t>[data('entitlement_id')]</t>
+  </si>
+  <si>
+    <t>'entitlement_id='+opendatakit.encodeURIDataElement('entitlement_id')</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -624,17 +634,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1119,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1164,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1174,7 +1194,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1253,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1302,7 +1322,7 @@
         <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
@@ -1313,7 +1333,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>30</v>
@@ -1502,7 +1522,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="25"/>
@@ -1633,7 +1653,7 @@
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="25"/>
@@ -1662,7 +1682,7 @@
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
@@ -1739,7 +1759,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
@@ -1839,7 +1859,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -1901,7 +1921,7 @@
         <v>44</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
@@ -1966,7 +1986,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -1990,14 +2010,14 @@
         <v>85</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -2021,7 +2041,7 @@
         <v>48</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
@@ -2084,7 +2104,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
@@ -2185,7 +2205,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
@@ -2266,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2314,23 +2334,21 @@
         <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="H4" s="10"/>
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -228,9 +228,6 @@
     <t>prompt_type_name</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>Please confirm or update item pack barcode.</t>
   </si>
   <si>
@@ -246,26 +243,9 @@
     <t>parse_ranges</t>
   </si>
   <si>
-    <t>(function() {
- var obj = JSON.parse(data('ranges'));
- var str = '';
- for (var i = 0; i &lt; obj.ranges.length - 1; i++) {
-  str += obj.ranges[i].min + ' to ' + obj.ranges[i].max + ',\n'
- }
- if (obj.ranges.length &gt; 1) {
-  str += 'or ';
- }
- str += obj.ranges[obj.ranges.length - 1].min + ' to ' + obj.ranges[obj.ranges.length - 1].max
- return str;
-})()</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
-    <t>Scan an item pack barcode within the range of {{data.summary}}</t>
-  </si>
-  <si>
     <t>calculates.parse_ranges()</t>
   </si>
   <si>
@@ -278,12 +258,96 @@
     <t>calculates.in_range()</t>
   </si>
   <si>
-    <t>data('valid') == 'false'</t>
+    <t>scanned_item_pack</t>
+  </si>
+  <si>
+    <t>data('item_pack_barcode')</t>
+  </si>
+  <si>
+    <t>entitlement_id</t>
+  </si>
+  <si>
+    <t>delivery_site</t>
+  </si>
+  <si>
+    <t>is_delivered</t>
+  </si>
+  <si>
+    <t>delivery_id</t>
+  </si>
+  <si>
+    <t>is_delivered_query</t>
+  </si>
+  <si>
+    <t>entitlements</t>
+  </si>
+  <si>
+    <t>pre-delivery</t>
+  </si>
+  <si>
+    <t>Please click the pencil icon to record delivery</t>
+  </si>
+  <si>
+    <t>Please continue to the next screen if you have clicked the pencil icon to record delivery</t>
+  </si>
+  <si>
+    <t>data('is_delivered') == 'true'</t>
+  </si>
+  <si>
+    <t>Since the entitlement was successfully delivered, we will now complete a brief delivery report.</t>
+  </si>
+  <si>
+    <t>What is the name of the delivery site?</t>
+  </si>
+  <si>
+    <t>Thank you for completing the post-delivery survey. Continue to the next screen to finalize.</t>
+  </si>
+  <si>
+    <t>Since no item pack was successfully delivery, we will not fill out a post-distribution report.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
+    <t>_id = ?</t>
+  </si>
+  <si>
+    <t>[data('entitlement_id')]</t>
+  </si>
+  <si>
+    <t>'entitlement_id='+opendatakit.encodeURIDataElement('entitlement_id')</t>
+  </si>
+  <si>
+    <t>Unauthorized Item Pack! Do not distribute this item pack. Would you like to scan a different item pack?</t>
+  </si>
+  <si>
+    <t>This item pack is authorized. Please deliver this item pack.</t>
+  </si>
+  <si>
+    <t>The authorized item pack for this beneficiary is {{data.assigned_code}}</t>
+  </si>
+  <si>
+    <t>Scan an item pack of type {{data.item_pack_name}} with a barcode of {{data.assigned_code}}</t>
+  </si>
+  <si>
+    <t>assigned_code</t>
+  </si>
+  <si>
+    <t>Scan an item pack of type {{data.item_pack_name}} {{data.summary}}</t>
   </si>
   <si>
     <t>(function() {
  var code = parseInt(data('item_pack_barcode'));
  var json = JSON.parse(data('ranges'));
+ if (json.ranges.length &lt; 1) {
+  return 'true';
+ }
  var valid = 'false';
  var i = 0;
  while (valid == 'false' &amp;&amp; i &lt; json.ranges.length) {
@@ -296,82 +360,37 @@
 })()</t>
   </si>
   <si>
-    <t>scanned_item_pack</t>
-  </si>
-  <si>
-    <t>data('item_pack_barcode')</t>
-  </si>
-  <si>
-    <t>entitlement_id</t>
-  </si>
-  <si>
-    <t>delivery_site</t>
-  </si>
-  <si>
-    <t>is_delivered</t>
-  </si>
-  <si>
-    <t>delivery_id</t>
-  </si>
-  <si>
-    <t>is_delivered_query</t>
-  </si>
-  <si>
-    <t>entitlements</t>
-  </si>
-  <si>
-    <t>pre-delivery</t>
-  </si>
-  <si>
-    <t>Item Pack out of authorized range! Do not distribute this item pack. Would you like to scan a different item pack?</t>
-  </si>
-  <si>
-    <t>This item pack is within authorized range. Please deliver this item pack.</t>
-  </si>
-  <si>
-    <t>Please click the pencil icon to record delivery</t>
-  </si>
-  <si>
-    <t>Please continue to the next screen if you have clicked the pencil icon to record delivery</t>
-  </si>
-  <si>
-    <t>data('is_delivered') == 'true'</t>
-  </si>
-  <si>
-    <t>Since the entitlement was successfully delivered, we will now complete a brief delivery report.</t>
-  </si>
-  <si>
-    <t>What is the name of the delivery site?</t>
-  </si>
-  <si>
-    <t>Thank you for completing the post-delivery survey. Continue to the next screen to finalize.</t>
-  </si>
-  <si>
-    <t>Since no item pack was successfully delivery, we will not fill out a post-distribution report.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>data('is_delivered')</t>
-  </si>
-  <si>
-    <t>!data('is_delivered')</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>Deliveries</t>
-  </si>
-  <si>
-    <t>_id = ?</t>
-  </si>
-  <si>
-    <t>[data('entitlement_id')]</t>
-  </si>
-  <si>
-    <t>'entitlement_id='+opendatakit.encodeURIDataElement('entitlement_id')</t>
+    <t>isNaN(data('assigned_code'))</t>
+  </si>
+  <si>
+    <t>(function() {
+ var obj = JSON.parse(data('ranges'));
+ if (obj.ranges.length &lt; 1) {
+  return 'with any barcode value';
+ } else {
+  var str = 'within the range of ';
+  for (var i = 0; i &lt; obj.ranges.length - 1; i++) {
+   str += obj.ranges[i].min + ' to ' + obj.ranges[i].max + ',\n';
+  }
+  if (obj.ranges.length &gt; 1) {
+   str += 'or ';
+  }
+  str += obj.ranges[obj.ranges.length - 1].min + ' to ' + obj.ranges[obj.ranges.length - 1].max;
+  return str;
+  } 
+})()</t>
+  </si>
+  <si>
+    <t>data('item_pack_barcode') === data('assigned_code')</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>!data('valid')</t>
+  </si>
+  <si>
+    <t>isSessionVariable</t>
   </si>
 </sst>
 </file>
@@ -510,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -570,8 +589,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -593,8 +632,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -633,8 +692,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -645,6 +707,16 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -655,6 +727,16 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -984,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -996,23 +1078,26 @@
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23">
+    <row r="1" spans="1:3" ht="23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="23">
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23">
       <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23">
       <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
@@ -1020,15 +1105,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23">
+    <row r="4" spans="1:3" ht="23">
       <c r="A4" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23">
       <c r="A5" s="35" t="s">
         <v>2</v>
       </c>
@@ -1036,92 +1121,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23">
+    <row r="6" spans="1:3" ht="23">
       <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="23">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23">
       <c r="A7" s="35" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23">
       <c r="A8" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23">
       <c r="A9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23">
       <c r="A10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23">
       <c r="A11" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23">
       <c r="A12" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23">
       <c r="A13" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23">
       <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23">
       <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23">
       <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23">
+      <c r="A17" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1236,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1166,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1184,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1194,7 +1290,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1202,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -1271,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1283,7 +1379,7 @@
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
@@ -1322,7 +1418,7 @@
         <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
@@ -1333,7 +1429,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>30</v>
@@ -1362,13 +1458,13 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="24"/>
       <c r="H3" s="25"/>
       <c r="I3" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="16" t="b">
         <v>1</v>
@@ -1386,26 +1482,22 @@
       <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" ht="23">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>75</v>
-      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="24"/>
       <c r="H4" s="25" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="16"/>
-      <c r="J4" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
@@ -1422,14 +1514,14 @@
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="21" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="25"/>
@@ -1437,9 +1529,7 @@
       <c r="J5" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -1455,22 +1545,22 @@
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="16" t="s">
-        <v>79</v>
-      </c>
+      <c r="I6" s="16"/>
       <c r="J6" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -1483,19 +1573,21 @@
       <c r="U6" s="16"/>
     </row>
     <row r="7" spans="1:21" ht="23">
-      <c r="A7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -1510,26 +1602,18 @@
       <c r="U7" s="16"/>
     </row>
     <row r="8" spans="1:21" ht="23">
-      <c r="A8" s="19"/>
+      <c r="A8" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>91</v>
-      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="24"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1543,19 +1627,19 @@
       <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:21" ht="23">
-      <c r="A9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>101</v>
+      </c>
       <c r="G9" s="24"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -1570,18 +1654,24 @@
       <c r="U9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="23">
-      <c r="A10" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="E10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>102</v>
+      </c>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
@@ -1595,19 +1685,25 @@
       <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:21" ht="23">
-      <c r="A11" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="A11" s="19"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="E11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="20"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1620,17 +1716,21 @@
       <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" ht="23">
-      <c r="A12" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -1645,19 +1745,17 @@
       <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" ht="23">
-      <c r="A13" s="19"/>
+      <c r="A13" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="F13" s="23"/>
       <c r="G13" s="24"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -1672,21 +1770,19 @@
       <c r="U13" s="16"/>
     </row>
     <row r="14" spans="1:21" ht="23">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>88</v>
-      </c>
+      <c r="A14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -1701,18 +1797,26 @@
       <c r="U14" s="16"/>
     </row>
     <row r="15" spans="1:21" ht="23">
-      <c r="A15" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="A15" s="19"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="C15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>99</v>
+      </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="16" t="b">
+        <v>1</v>
+      </c>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -1727,16 +1831,18 @@
     </row>
     <row r="16" spans="1:21" ht="23">
       <c r="A16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
@@ -1751,19 +1857,17 @@
       <c r="U16" s="16"/>
     </row>
     <row r="17" spans="1:21" ht="23">
-      <c r="A17" s="19"/>
+      <c r="A17" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
-        <v>94</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
@@ -1778,21 +1882,17 @@
       <c r="U17" s="16"/>
     </row>
     <row r="18" spans="1:21" ht="23">
-      <c r="A18" s="19"/>
+      <c r="A18" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="16"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
@@ -1807,7 +1907,9 @@
       <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" ht="23">
-      <c r="A19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -1815,7 +1917,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
@@ -1830,17 +1932,19 @@
       <c r="U19" s="16"/>
     </row>
     <row r="20" spans="1:21" ht="23">
-      <c r="A20" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="D20" s="21"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
@@ -1855,16 +1959,18 @@
       <c r="U20" s="16"/>
     </row>
     <row r="21" spans="1:21" ht="23">
-      <c r="A21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
       <c r="I21" s="16"/>
@@ -1882,21 +1988,17 @@
       <c r="U21" s="16"/>
     </row>
     <row r="22" spans="1:21" ht="23">
-      <c r="A22" s="19"/>
+      <c r="A22" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
-        <v>45</v>
-      </c>
+      <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="E22" s="22"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="16" t="s">
-        <v>83</v>
-      </c>
+      <c r="I22" s="17"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
@@ -1911,21 +2013,17 @@
       <c r="U22" s="16"/>
     </row>
     <row r="23" spans="1:21" ht="23">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C23" s="21"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
@@ -1943,18 +2041,16 @@
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="23"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23" t="s">
+        <v>87</v>
+      </c>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="I24" s="26"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -1972,22 +2068,20 @@
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>83</v>
+      </c>
       <c r="E25" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>47</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
       <c r="I25" s="16"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="16" t="s">
-        <v>101</v>
-      </c>
+      <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
@@ -2002,23 +2096,15 @@
     <row r="26" spans="1:21" ht="23">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
-        <v>2</v>
-      </c>
+      <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>97</v>
-      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="16" t="s">
-        <v>101</v>
-      </c>
+      <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
@@ -2031,21 +2117,17 @@
       <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21" ht="23">
-      <c r="A27" s="19"/>
+      <c r="A27" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>98</v>
-      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="16"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
@@ -2061,9 +2143,11 @@
     </row>
     <row r="28" spans="1:21" ht="23">
       <c r="A28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="20"/>
+        <v>33</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="22"/>
@@ -2088,24 +2172,20 @@
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>26</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="E29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>49</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
-      <c r="I29" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="J29" s="16"/>
-      <c r="K29" s="16" t="s">
-        <v>102</v>
-      </c>
+      <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
@@ -2118,16 +2198,18 @@
       <c r="U29" s="16"/>
     </row>
     <row r="30" spans="1:21" ht="23">
-      <c r="A30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="21"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>89</v>
+      </c>
       <c r="G30" s="24"/>
       <c r="H30" s="25"/>
       <c r="I30" s="16"/>
@@ -2145,17 +2227,21 @@
       <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:21" ht="23">
-      <c r="A31" s="19" t="s">
-        <v>37</v>
-      </c>
+      <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="C31" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
+      <c r="E31" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="F31" s="23"/>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
-      <c r="I31" s="16"/>
+      <c r="I31" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
@@ -2170,14 +2256,18 @@
       <c r="U31" s="16"/>
     </row>
     <row r="32" spans="1:21" ht="23">
-      <c r="A32" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
+      <c r="C32" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>47</v>
+      </c>
       <c r="G32" s="24"/>
       <c r="H32" s="25"/>
       <c r="I32" s="16"/>
@@ -2198,14 +2288,14 @@
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="21" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="25"/>
@@ -2224,14 +2314,18 @@
       <c r="U33" s="16"/>
     </row>
     <row r="34" spans="1:21" ht="23">
-      <c r="A34" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
+      <c r="C34" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
+      <c r="E34" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="G34" s="24"/>
       <c r="H34" s="25"/>
       <c r="I34" s="16"/>
@@ -2250,7 +2344,7 @@
     </row>
     <row r="35" spans="1:21" ht="23">
       <c r="A35" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
@@ -2272,6 +2366,193 @@
       <c r="S35" s="16"/>
       <c r="T35" s="16"/>
       <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="1:21" ht="23">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+    </row>
+    <row r="37" spans="1:21" ht="23">
+      <c r="A37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+    </row>
+    <row r="38" spans="1:21" ht="23">
+      <c r="A38" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+    </row>
+    <row r="39" spans="1:21" ht="23">
+      <c r="A39" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+    </row>
+    <row r="40" spans="1:21" ht="23">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+    </row>
+    <row r="41" spans="1:21" ht="23">
+      <c r="A41" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+    </row>
+    <row r="42" spans="1:21" ht="23">
+      <c r="A42" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2322,28 +2603,28 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2398,7 +2679,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2408,30 +2689,31 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="195">
+    <row r="2" spans="1:2" ht="255">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="195">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="240">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -373,10 +373,10 @@
     <t>data('is_delivered') == 'true'</t>
   </si>
   <si>
-    <t>data('assigned_code') == ''</t>
-  </si>
-  <si>
     <t>{{data.assigned_code}}</t>
+  </si>
+  <si>
+    <t>data('assigned_code') === null || data('assigned_code') === undefined</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1486,7 +1486,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="24"/>
@@ -1509,7 +1509,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="40" windowWidth="25040" windowHeight="15500" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="1320" yWindow="100" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
     <sheet name="choices" sheetId="3" r:id="rId3"/>
     <sheet name="survey" sheetId="4" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
-    <sheet name="calculates" sheetId="7" r:id="rId6"/>
-    <sheet name="properties" sheetId="8" r:id="rId7"/>
-    <sheet name="initial" sheetId="9" r:id="rId8"/>
+    <sheet name="calculates" sheetId="7" r:id="rId5"/>
+    <sheet name="properties" sheetId="8" r:id="rId6"/>
+    <sheet name="initial" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -139,9 +138,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>async_assign_single_string</t>
-  </si>
-  <si>
     <t>pre-summary</t>
   </si>
   <si>
@@ -182,9 +178,6 @@
   </si>
   <si>
     <t>model.isSessionVariable</t>
-  </si>
-  <si>
-    <t>prompt_type_name</t>
   </si>
   <si>
     <t>Please confirm or update item pack barcode.</t>
@@ -373,10 +366,10 @@
     <t>data('is_delivered') == 'true'</t>
   </si>
   <si>
-    <t>{{data.assigned_code}}</t>
-  </si>
-  <si>
     <t>data('assigned_code') === null || data('assigned_code') === undefined</t>
+  </si>
+  <si>
+    <t>sector</t>
   </si>
 </sst>
 </file>
@@ -601,8 +594,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -692,7 +743,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -713,6 +764,35 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -733,6 +813,35 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1062,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1082,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23">
@@ -1090,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23">
@@ -1106,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23">
@@ -1122,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23">
@@ -1170,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23">
@@ -1186,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="23">
@@ -1194,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23">
@@ -1202,18 +1311,26 @@
         <v>2</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23">
       <c r="A17" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23">
+      <c r="A18" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1276,7 +1393,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1286,7 +1403,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23">
@@ -1294,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -1334,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1345,7 +1462,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1363,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1384,16 +1501,16 @@
   <sheetData>
     <row r="1" spans="1:21" ht="23">
       <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>1</v>
@@ -1402,19 +1519,19 @@
         <v>23</v>
       </c>
       <c r="G1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23">
@@ -1425,7 +1542,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>28</v>
@@ -1450,17 +1567,17 @@
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J3" s="15" t="b">
         <v>1</v>
@@ -1478,18 +1595,20 @@
       <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" ht="23">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="22" t="s">
-        <v>105</v>
-      </c>
+      <c r="F4" s="22"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -1505,22 +1624,24 @@
       <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" ht="23">
-      <c r="A5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="E5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="H5" s="24"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="J5" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -1537,14 +1658,14 @@
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
@@ -1552,7 +1673,7 @@
       <c r="J6" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -1568,22 +1689,20 @@
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>53</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19"/>
+      <c r="I7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
@@ -1596,21 +1715,17 @@
       <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" ht="23">
-      <c r="A8" s="18"/>
+      <c r="A8" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1625,14 +1740,16 @@
       <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" ht="23">
-      <c r="A9" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="A9" s="18"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
       <c r="I9" s="15"/>
@@ -1653,17 +1770,21 @@
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="J10" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1680,14 +1801,14 @@
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
@@ -1695,7 +1816,7 @@
       <c r="J11" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
@@ -1711,22 +1832,20 @@
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>53</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="19"/>
+      <c r="I12" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
@@ -1739,21 +1858,17 @@
       <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21" ht="23">
-      <c r="A13" s="18"/>
+      <c r="A13" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="36" t="s">
-        <v>85</v>
-      </c>
+      <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -1769,16 +1884,18 @@
     </row>
     <row r="14" spans="1:21" ht="23">
       <c r="A14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -1793,20 +1910,26 @@
       <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21" ht="23">
-      <c r="A15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="15" t="b">
+        <v>1</v>
+      </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -1820,26 +1943,20 @@
       <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:21" ht="23">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>77</v>
-      </c>
+      <c r="A16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -1854,11 +1971,9 @@
     </row>
     <row r="17" spans="1:21" ht="23">
       <c r="A17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>103</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="21"/>
@@ -1881,7 +1996,7 @@
     </row>
     <row r="18" spans="1:21" ht="23">
       <c r="A18" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -1906,7 +2021,7 @@
     </row>
     <row r="19" spans="1:21" ht="23">
       <c r="A19" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -1930,14 +2045,16 @@
       <c r="U19" s="15"/>
     </row>
     <row r="20" spans="1:21" ht="23">
-      <c r="A20" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>76</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
       <c r="I20" s="23"/>
@@ -1958,12 +2075,16 @@
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="F21" s="22" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
@@ -1982,23 +2103,17 @@
       <c r="U21" s="15"/>
     </row>
     <row r="22" spans="1:21" ht="23">
-      <c r="A22" s="18"/>
+      <c r="A22" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>100</v>
-      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="23"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -2014,16 +2129,18 @@
     </row>
     <row r="23" spans="1:21" ht="23">
       <c r="A23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="16"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -2038,19 +2155,21 @@
       <c r="U23" s="15"/>
     </row>
     <row r="24" spans="1:21" ht="23">
-      <c r="A24" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="20"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
@@ -2068,18 +2187,18 @@
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="22"/>
+        <v>37</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -2097,18 +2216,18 @@
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>70</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F26" s="22"/>
       <c r="G26" s="23"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
@@ -2126,18 +2245,18 @@
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
@@ -2159,10 +2278,10 @@
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
@@ -2184,14 +2303,14 @@
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
@@ -2210,18 +2329,14 @@
       <c r="U29" s="15"/>
     </row>
     <row r="30" spans="1:21" ht="23">
-      <c r="A30" s="18"/>
+      <c r="A30" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>72</v>
-      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="23"/>
       <c r="H30" s="24"/>
       <c r="I30" s="15"/>
@@ -2239,14 +2354,20 @@
       <c r="U30" s="15"/>
     </row>
     <row r="31" spans="1:21" ht="23">
-      <c r="A31" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="A31" s="18"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+      <c r="C31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="G31" s="23"/>
       <c r="H31" s="24"/>
       <c r="I31" s="15"/>
@@ -2264,20 +2385,16 @@
       <c r="U31" s="15"/>
     </row>
     <row r="32" spans="1:21" ht="23">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="A32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="23"/>
       <c r="H32" s="24"/>
       <c r="I32" s="15"/>
@@ -2296,11 +2413,9 @@
     </row>
     <row r="33" spans="1:21" ht="23">
       <c r="A33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>103</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
@@ -2323,7 +2438,7 @@
     </row>
     <row r="34" spans="1:21" ht="23">
       <c r="A34" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -2347,14 +2462,18 @@
       <c r="U34" s="15"/>
     </row>
     <row r="35" spans="1:21" ht="23">
-      <c r="A35" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="A35" s="18"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
+      <c r="C35" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
+      <c r="E35" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="G35" s="23"/>
       <c r="H35" s="24"/>
       <c r="I35" s="15"/>
@@ -2372,18 +2491,14 @@
       <c r="U35" s="15"/>
     </row>
     <row r="36" spans="1:21" ht="23">
-      <c r="A36" s="18"/>
+      <c r="A36" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>73</v>
-      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
       <c r="G36" s="23"/>
       <c r="H36" s="24"/>
       <c r="I36" s="15"/>
@@ -2407,8 +2522,8 @@
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="26"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="23"/>
       <c r="H37" s="24"/>
       <c r="I37" s="15"/>
@@ -2425,31 +2540,6 @@
       <c r="T37" s="15"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:21" ht="23">
-      <c r="A38" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2462,42 +2552,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="45">
-      <c r="A2" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2512,26 +2566,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="255">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="240">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2557,13 +2611,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
@@ -2574,19 +2628,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +2653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2611,7 +2665,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
@@ -2620,12 +2674,12 @@
         <v>23</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25">
       <c r="A2" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -2633,12 +2687,12 @@
     </row>
     <row r="3" spans="1:4" ht="145">
       <c r="A3" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/deliveries/forms/deliveries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="100" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -17,6 +22,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -369,7 +377,19 @@
     <t>data('assigned_code') === null || data('assigned_code') === undefined</t>
   </si>
   <si>
-    <t>sector</t>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>filterTypeOnCreation</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
   </si>
 </sst>
 </file>
@@ -846,6 +866,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1171,19 +1196,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
@@ -1202,7 +1227,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="23">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
@@ -1218,7 +1243,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="23">
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="23">
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>2</v>
       </c>
@@ -1242,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="23">
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="23">
+    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>2</v>
       </c>
@@ -1258,7 +1283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="23">
+    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="23">
+    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>2</v>
       </c>
@@ -1274,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="23">
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="23">
+    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="23">
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="23">
+    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1331,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="23">
+    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="23">
+    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>84</v>
       </c>
@@ -1323,24 +1348,11 @@
       </c>
       <c r="C17" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="23">
-      <c r="A18" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1352,14 +1364,14 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1391,7 @@
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" ht="23">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1400,7 @@
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" ht="23">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1409,7 @@
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" ht="23">
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1417,11 +1429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1433,9 +1440,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1470,11 +1477,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1482,11 +1484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1499,7 +1501,7 @@
     <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23">
+    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="23">
+    <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
@@ -1563,7 +1565,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" spans="1:21" ht="23">
+    <row r="3" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20" t="s">
@@ -1594,7 +1596,7 @@
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" spans="1:21" ht="23">
+    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>31</v>
       </c>
@@ -1623,7 +1625,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" spans="1:21" ht="23">
+    <row r="5" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
@@ -1654,7 +1656,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
     </row>
-    <row r="6" spans="1:21" ht="23">
+    <row r="6" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
@@ -1685,7 +1687,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" spans="1:21" ht="23">
+    <row r="7" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20" t="s">
@@ -1714,7 +1716,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="1:21" ht="23">
+    <row r="8" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +1741,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="1:21" ht="23">
+    <row r="9" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
@@ -1766,7 +1768,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:21" ht="23">
+    <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
@@ -1797,7 +1799,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:21" ht="23">
+    <row r="11" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20" t="s">
@@ -1828,7 +1830,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="12" spans="1:21" ht="23">
+    <row r="12" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20" t="s">
@@ -1857,7 +1859,7 @@
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="1:21" ht="23">
+    <row r="13" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +1884,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:21" ht="23">
+    <row r="14" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>31</v>
       </c>
@@ -1909,7 +1911,7 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:21" ht="23">
+    <row r="15" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20" t="s">
@@ -1942,7 +1944,7 @@
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:21" ht="23">
+    <row r="16" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>31</v>
       </c>
@@ -1969,7 +1971,7 @@
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="23">
+    <row r="17" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +1996,7 @@
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="23">
+    <row r="18" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>35</v>
       </c>
@@ -2019,7 +2021,7 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="23">
+    <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>36</v>
       </c>
@@ -2044,7 +2046,7 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="23">
+    <row r="20" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20" t="s">
@@ -2071,7 +2073,7 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
     </row>
-    <row r="21" spans="1:21" ht="23">
+    <row r="21" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
@@ -2102,7 +2104,7 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
     </row>
-    <row r="22" spans="1:21" ht="23">
+    <row r="22" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>35</v>
       </c>
@@ -2127,7 +2129,7 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
     </row>
-    <row r="23" spans="1:21" ht="23">
+    <row r="23" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
@@ -2154,7 +2156,7 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
     </row>
-    <row r="24" spans="1:21" ht="23">
+    <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20" t="s">
@@ -2183,7 +2185,7 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
     </row>
-    <row r="25" spans="1:21" ht="23">
+    <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20" t="s">
@@ -2212,7 +2214,7 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
     </row>
-    <row r="26" spans="1:21" ht="23">
+    <row r="26" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
@@ -2241,7 +2243,7 @@
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
     </row>
-    <row r="27" spans="1:21" ht="23">
+    <row r="27" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20" t="s">
@@ -2270,7 +2272,7 @@
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
     </row>
-    <row r="28" spans="1:21" ht="23">
+    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20" t="s">
@@ -2299,7 +2301,7 @@
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
     </row>
-    <row r="29" spans="1:21" ht="23">
+    <row r="29" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20" t="s">
@@ -2328,7 +2330,7 @@
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
     </row>
-    <row r="30" spans="1:21" ht="23">
+    <row r="30" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
@@ -2353,7 +2355,7 @@
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
     </row>
-    <row r="31" spans="1:21" ht="23">
+    <row r="31" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20" t="s">
@@ -2384,7 +2386,7 @@
       <c r="T31" s="15"/>
       <c r="U31" s="15"/>
     </row>
-    <row r="32" spans="1:21" ht="23">
+    <row r="32" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2413,7 @@
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" spans="1:21" ht="23">
+    <row r="33" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>34</v>
       </c>
@@ -2436,7 +2438,7 @@
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
     </row>
-    <row r="34" spans="1:21" ht="23">
+    <row r="34" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>36</v>
       </c>
@@ -2461,7 +2463,7 @@
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
     </row>
-    <row r="35" spans="1:21" ht="23">
+    <row r="35" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20" t="s">
@@ -2490,7 +2492,7 @@
       <c r="T35" s="15"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" spans="1:21" ht="23">
+    <row r="36" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>35</v>
       </c>
@@ -2515,7 +2517,7 @@
       <c r="T36" s="15"/>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" ht="23">
+    <row r="37" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>35</v>
       </c>
@@ -2543,11 +2545,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2559,12 +2556,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="255">
+    <row r="2" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -2580,7 +2577,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="240">
+    <row r="3" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2591,25 +2588,20 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
@@ -2626,7 +2618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>87</v>
       </c>
@@ -2643,13 +2635,42 @@
         <v>90</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2661,9 +2682,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
@@ -2677,7 +2698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>95</v>
       </c>
@@ -2685,7 +2706,7 @@
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="1:4" ht="145">
+    <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>96</v>
       </c>
@@ -2697,10 +2718,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>values_list</t>
-  </si>
-  <si>
-    <t>display.hint</t>
   </si>
   <si>
     <t>branch_label</t>
@@ -390,6 +387,12 @@
   </si>
   <si>
     <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.prompt.hint</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1224,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1240,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1256,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1304,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1320,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1328,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1336,15 +1339,15 @@
         <v>2</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1387,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -1405,7 +1408,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1415,7 +1418,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1423,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -1458,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -1469,7 +1472,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1484,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,22 +1521,22 @@
         <v>1</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="G1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
@@ -1544,7 +1547,7 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>28</v>
@@ -1573,13 +1576,13 @@
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="15" t="b">
         <v>1</v>
@@ -1601,7 +1604,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1636,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
@@ -1667,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
@@ -1695,13 +1698,13 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
       <c r="I7" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -1750,7 +1753,7 @@
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
       <c r="F9" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -1779,7 +1782,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
@@ -1810,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
@@ -1838,13 +1841,13 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -1889,7 +1892,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1924,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
@@ -1949,7 +1952,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -2055,7 +2058,7 @@
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
@@ -2083,10 +2086,10 @@
         <v>24</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
@@ -2134,7 +2137,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -2164,13 +2167,13 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
       <c r="H24" s="24"/>
       <c r="I24" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -2196,7 +2199,7 @@
         <v>37</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="24"/>
@@ -2280,10 +2283,10 @@
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
@@ -2312,7 +2315,7 @@
         <v>41</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
@@ -2391,7 +2394,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2474,7 +2477,7 @@
         <v>43</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="24"/>
@@ -2563,26 +2566,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2603,13 +2606,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
@@ -2620,53 +2623,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2695,12 +2698,12 @@
         <v>23</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -2708,12 +2711,12 @@
     </row>
     <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>display.prompt.hint</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1323,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1339,15 +1339,15 @@
         <v>2</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1382,21 +1382,21 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8">
         <v>20160822</v>
@@ -1405,28 +1405,28 @@
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -1447,35 +1447,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1506,51 +1506,51 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>109</v>
-      </c>
       <c r="H1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
@@ -1572,17 +1572,17 @@
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
       <c r="H3" s="24"/>
       <c r="I3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" s="15" t="b">
         <v>1</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -1612,7 +1612,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -1632,14 +1632,14 @@
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="24"/>
@@ -1670,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
@@ -1694,17 +1694,17 @@
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
       <c r="I7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="8" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -1748,12 +1748,12 @@
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
       <c r="F9" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -1775,14 +1775,14 @@
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
@@ -1837,17 +1837,17 @@
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
       <c r="I12" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="13" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="14" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -1918,16 +1918,16 @@
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="F15" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="24"/>
@@ -1949,10 +1949,10 @@
     </row>
     <row r="16" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="17" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="18" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -2053,12 +2053,12 @@
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
@@ -2080,16 +2080,16 @@
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="22" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -2134,10 +2134,10 @@
     </row>
     <row r="23" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
@@ -2163,17 +2163,17 @@
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="23"/>
       <c r="H24" s="24"/>
       <c r="I24" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -2192,14 +2192,14 @@
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="24"/>
@@ -2221,7 +2221,7 @@
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="21" t="s">
@@ -2231,7 +2231,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="24"/>
       <c r="I26" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -2257,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="24"/>
@@ -2283,10 +2283,10 @@
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
@@ -2308,14 +2308,14 @@
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="30" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
@@ -2362,16 +2362,16 @@
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="F31" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="24"/>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="32" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="33" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="34" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -2470,14 +2470,14 @@
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="24"/>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="36" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="37" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
@@ -2566,26 +2566,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2606,13 +2606,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
@@ -2623,53 +2623,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
-        <v>105</v>
-      </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2689,21 +2689,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -2711,12 +2711,12 @@
     </row>
     <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23500" yWindow="11920" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="survey" sheetId="4" r:id="rId4"/>
-    <sheet name="calculates" sheetId="7" r:id="rId5"/>
-    <sheet name="properties" sheetId="8" r:id="rId6"/>
-    <sheet name="initial" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="survey" sheetId="4" r:id="rId5"/>
+    <sheet name="calculates" sheetId="7" r:id="rId6"/>
+    <sheet name="properties" sheetId="8" r:id="rId7"/>
+    <sheet name="initial" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -393,6 +394,30 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>text.default</t>
+  </si>
+  <si>
+    <t>text.spanish</t>
+  </si>
+  <si>
+    <t>Delivery ID</t>
+  </si>
+  <si>
+    <t>Time of Delivery</t>
+  </si>
+  <si>
+    <t>Delivery Site</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Scanned Item Pack</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1437,6 +1462,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1483,7 +1574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
@@ -2551,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2594,7 +2685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2677,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23500" yWindow="11920" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
     <sheet name="settings" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="table_specific_translations" sheetId="10" r:id="rId3"/>
     <sheet name="choices" sheetId="3" r:id="rId4"/>
     <sheet name="survey" sheetId="4" r:id="rId5"/>
     <sheet name="calculates" sheetId="7" r:id="rId6"/>
@@ -381,9 +381,6 @@
     <t>unverifiedUserCanCreate</t>
   </si>
   <si>
-    <t>filterTypeOnCreation</t>
-  </si>
-  <si>
     <t>HIDDEN</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>string_token</t>
   </si>
   <si>
-    <t>text.default</t>
-  </si>
-  <si>
     <t>text.spanish</t>
   </si>
   <si>
@@ -418,6 +412,12 @@
   </si>
   <si>
     <t>Scanned Item Pack</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -1464,21 +1464,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>108</v>
       </c>
       <c r="H1" s="31" t="s">
         <v>46</v>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2754,13 +2754,13 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/deliveries/forms/deliveries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22720" windowHeight="16500" tabRatio="989" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="model" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="table_specific_translations" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="choices" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="survey" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="calculates" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="properties" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="initial" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="model" sheetId="1" r:id="rId1"/>
+    <sheet name="settings" sheetId="2" r:id="rId2"/>
+    <sheet name="table_specific_translations" sheetId="3" r:id="rId3"/>
+    <sheet name="choices" sheetId="4" r:id="rId4"/>
+    <sheet name="survey" sheetId="5" r:id="rId5"/>
+    <sheet name="calculates" sheetId="6" r:id="rId6"/>
+    <sheet name="properties" sheetId="7" r:id="rId7"/>
+    <sheet name="initial" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,322 +39,304 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isSessionVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entitlement_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delivery_site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_delivered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beneficiary_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authorization_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authorization_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_pack_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_pack_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_override</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scanned_item_pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assigned_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deliveries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deliveries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delivery_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time of Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delivery Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scanned Item Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">values_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.prompt.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.prompt.hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">branch_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.isSessionVariable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre-delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will now distribute the appropriate item pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculates.parse_ranges()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('assigned_code') === null || data('assigned_code') === undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_pack_barcode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan an item pack of type {{data.item_pack_name}} {{data.summary}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please confirm or update item pack barcode.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculates.in_range()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The authorized item pack for this beneficiary is {{data.assigned_code}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scan an item pack of type {{data.item_pack_name}} with a barcode of {{data.assigned_code}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('item_pack_barcode') === data('assigned_code')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!data('valid')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">try_again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unauthorized Item Pack! Do not distribute this item pack. Would you like to scan a different item pack?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('try_again'),'true')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goto item_scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This item pack is authorized. Please deliver this item pack.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has the item pack been successfully delivered?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('is_delivered') == 'true'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('item_pack_barcode')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre-summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the entitlement was successfully delivered, we will now complete a brief delivery report.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">now()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the name of the distributor?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the name of the delivery site?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you for completing the post-delivery survey. Continue to the next screen to finalize.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would you like to scan a different item pack instead?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_report_option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since no item pack was successfully delivery, we will not fill out a post-distribution report.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calculation_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parse_ranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(function() {
- var obj = JSON.parse(data('ranges'));
- if (obj.ranges.length &lt; 1) {
-  return 'with any barcode value';
- } else {
-  var str = 'within the range of ';
-  for (var i = 0; i &lt; obj.ranges.length - 1; i++) {
-   str += obj.ranges[i].min + ' to ' + obj.ranges[i].max + ',\n';
-  }
-  if (obj.ranges.length &gt; 1) {
-   str += 'or ';
-  }
-  str += obj.ranges[obj.ranges.length - 1].min + ' to ' + obj.ranges[obj.ranges.length - 1].max;
-  return str;
-  } 
-})()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(function() {
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>isSessionVariable</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>entitlement_id</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>delivery_site</t>
+  </si>
+  <si>
+    <t>distributor</t>
+  </si>
+  <si>
+    <t>is_delivered</t>
+  </si>
+  <si>
+    <t>beneficiary_code</t>
+  </si>
+  <si>
+    <t>authorization_id</t>
+  </si>
+  <si>
+    <t>authorization_name</t>
+  </si>
+  <si>
+    <t>item_pack_id</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
+    <t>item_description</t>
+  </si>
+  <si>
+    <t>is_override</t>
+  </si>
+  <si>
+    <t>ranges</t>
+  </si>
+  <si>
+    <t>scanned_item_pack</t>
+  </si>
+  <si>
+    <t>assigned_code</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>setting_name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>form_version</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>delivery_id</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>text.spanish</t>
+  </si>
+  <si>
+    <t>Delivery ID</t>
+  </si>
+  <si>
+    <t>Time of Delivery</t>
+  </si>
+  <si>
+    <t>Delivery Site</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Scanned Item Pack</t>
+  </si>
+  <si>
+    <t>choice_list_name</t>
+  </si>
+  <si>
+    <t>data_value</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>values_list</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.prompt.hint</t>
+  </si>
+  <si>
+    <t>branch_label</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>model.isSessionVariable</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>pre-delivery</t>
+  </si>
+  <si>
+    <t>We will now distribute the appropriate item pack</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>calculates.parse_ranges()</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>data('assigned_code') === null || data('assigned_code') === undefined</t>
+  </si>
+  <si>
+    <t>item_scan</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>item_pack_barcode</t>
+  </si>
+  <si>
+    <t>Scan an item pack of type {{data.item_pack_name}} {{data.summary}}</t>
+  </si>
+  <si>
+    <t>Please confirm or update item pack barcode.</t>
+  </si>
+  <si>
+    <t>calculates.in_range()</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>The authorized item pack for this beneficiary is {{data.assigned_code}}</t>
+  </si>
+  <si>
+    <t>Scan an item pack of type {{data.item_pack_name}} with a barcode of {{data.assigned_code}}</t>
+  </si>
+  <si>
+    <t>data('item_pack_barcode') === data('assigned_code')</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>!data('valid')</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>try_again</t>
+  </si>
+  <si>
+    <t>Unauthorized Item Pack! Do not distribute this item pack. Would you like to scan a different item pack?</t>
+  </si>
+  <si>
+    <t>selected(data('try_again'),'true')</t>
+  </si>
+  <si>
+    <t>goto item_scan</t>
+  </si>
+  <si>
+    <t>This item pack is authorized. Please deliver this item pack.</t>
+  </si>
+  <si>
+    <t>Has the item pack been successfully delivered?</t>
+  </si>
+  <si>
+    <t>data('is_delivered') == 'true'</t>
+  </si>
+  <si>
+    <t>data('item_pack_barcode')</t>
+  </si>
+  <si>
+    <t>pre-summary</t>
+  </si>
+  <si>
+    <t>Since the entitlement was successfully delivered, we will now complete a brief delivery report.</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>What is the name of the distributor?</t>
+  </si>
+  <si>
+    <t>What is the name of the delivery site?</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>Thank you for completing the post-delivery survey. Continue to the next screen to finalize.</t>
+  </si>
+  <si>
+    <t>Would you like to scan a different item pack instead?</t>
+  </si>
+  <si>
+    <t>no_report_option</t>
+  </si>
+  <si>
+    <t>Since no item pack was successfully delivery, we will not fill out a post-distribution report.</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>parse_ranges</t>
+  </si>
+  <si>
+    <t>in_range</t>
+  </si>
+  <si>
+    <t>(function() {
  var code = parseInt(data('item_pack_barcode'));
  var json = JSON.parse(data('ranges'));
  if (json.ranges.length &lt; 1) {
@@ -362,65 +354,79 @@
 })()</t>
   </si>
   <si>
-    <t xml:space="preserve">partition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SurveyUtil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SurveyUtil.formId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong_form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unverifiedUserCanCreate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defaultAccessOnCreation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do section survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goto _finalize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>SurveyUtil</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>SurveyUtil.formId</t>
+  </si>
+  <si>
+    <t>wrong_form</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>(function() {var obj = JSON.parse(data('ranges'));
+ if (obj.ranges.length &lt; 1) {
+  return 'with any barcode value';
+ } else {
+  var str = 'within the range of ';
+  for (var i = 0; i &lt; obj.ranges.length - 1; i++) {
+   str += obj.ranges[i].min + ' to ' + obj.ranges[i].max + ',\n';
+  }
+  if (obj.ranges.length &gt; 1) {
+   str += 'or ';
+  }
+  str += obj.ranges[obj.ranges.length - 1].min + ' to ' + obj.ranges[obj.ranges.length - 1].max;
+  return str;
+  } 
+})()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -429,22 +435,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -511,235 +502,138 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -798,41 +692,307 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.5518518518518"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -840,7 +1000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -848,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -864,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -880,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,7 +1064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -912,7 +1072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,7 +1080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -928,7 +1088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -936,7 +1096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,49 +1112,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C17" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.8703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -1014,16 +1160,16 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="11">
         <v>20160822</v>
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1178,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>29</v>
       </c>
@@ -1041,7 +1187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1051,180 +1197,138 @@
       <c r="C6" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.5777777777778"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3222222222222"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.3888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.3814814814815"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.6555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.6962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -1249,17 +1353,17 @@
       <c r="H1" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20" t="s">
@@ -1288,7 +1392,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="26"/>
       <c r="C3" s="27" t="s">
@@ -1304,8 +1408,8 @@
       <c r="I3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="13" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J3" s="13" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K3" s="13"/>
@@ -1320,7 +1424,7 @@
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
     </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>63</v>
       </c>
@@ -1349,7 +1453,7 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
@@ -1365,8 +1469,8 @@
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J5" s="13" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K5" s="13"/>
@@ -1381,7 +1485,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
@@ -1397,8 +1501,8 @@
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="13" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J6" s="13" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K6" s="26"/>
@@ -1413,7 +1517,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
@@ -1442,7 +1546,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>71</v>
       </c>
@@ -1467,7 +1571,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27" t="s">
@@ -1494,7 +1598,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27" t="s">
@@ -1510,8 +1614,8 @@
       <c r="G10" s="29"/>
       <c r="H10" s="30"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="13" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J10" s="13" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K10" s="13"/>
@@ -1526,7 +1630,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
@@ -1542,8 +1646,8 @@
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="13" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J11" s="13" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K11" s="26"/>
@@ -1558,7 +1662,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
@@ -1587,7 +1691,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>75</v>
       </c>
@@ -1612,7 +1716,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>63</v>
       </c>
@@ -1639,7 +1743,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
@@ -1657,8 +1761,8 @@
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="13" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="J15" s="13" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="K15" s="13"/>
@@ -1673,7 +1777,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>63</v>
       </c>
@@ -1700,7 +1804,7 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
@@ -1725,7 +1829,7 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>75</v>
       </c>
@@ -1750,7 +1854,7 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
     </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>71</v>
       </c>
@@ -1775,7 +1879,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27" t="s">
@@ -1802,7 +1906,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
@@ -1833,7 +1937,7 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
     </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>75</v>
       </c>
@@ -1858,7 +1962,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
         <v>63</v>
       </c>
@@ -1885,7 +1989,7 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
@@ -1914,7 +2018,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
@@ -1943,7 +2047,7 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27" t="s">
@@ -1972,7 +2076,7 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27" t="s">
@@ -2001,7 +2105,7 @@
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
@@ -2030,7 +2134,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="27" t="s">
@@ -2059,7 +2163,7 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>71</v>
       </c>
@@ -2084,7 +2188,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27" t="s">
@@ -2115,7 +2219,7 @@
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>63</v>
       </c>
@@ -2142,7 +2246,7 @@
       <c r="T32" s="13"/>
       <c r="U32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>81</v>
       </c>
@@ -2167,7 +2271,7 @@
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
     </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>71</v>
       </c>
@@ -2192,7 +2296,7 @@
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27" t="s">
@@ -2221,7 +2325,7 @@
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
     </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>75</v>
       </c>
@@ -2246,7 +2350,7 @@
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>75</v>
       </c>
@@ -2272,94 +2376,73 @@
       <c r="U37" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.1851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6814814814815"/>
+    <col min="2" max="2" width="128.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="272" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="256" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
@@ -2368,85 +2451,74 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6814814814815"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>48</v>
       </c>
@@ -2454,37 +2526,32 @@
         <v>0</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>115</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" customFormat="false" ht="157" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" ht="196" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/deliveries/forms/deliveries/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="0" windowWidth="48440" windowHeight="25740" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="2760" yWindow="460" windowWidth="48440" windowHeight="25740" tabRatio="989" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -16,13 +21,13 @@
     <sheet name="properties" sheetId="7" r:id="rId7"/>
     <sheet name="initial" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -405,8 +410,10 @@
 })()</t>
   </si>
   <si>
-    <t>(function() {
- var obj = JSON.parse(data('ranges'));
+    <t>selected(data('is_delivered'), 'true')</t>
+  </si>
+  <si>
+    <t>(function() {var obj = JSON.parse(data('ranges'));
  if (obj === null || obj === undefined) {
   return 'with any barcode value';
  }
@@ -424,9 +431,6 @@
   return str;
   } 
 })()</t>
-  </si>
-  <si>
-    <t>selected(data('is_delivered'), 'true')</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1016,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1026,7 +1030,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="53.83203125" customWidth="1"/>
@@ -1040,7 +1044,7 @@
     <col min="10" max="10" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23">
+    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="23">
+    <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>114</v>
       </c>
@@ -1087,7 +1091,7 @@
       <c r="G2" s="40"/>
       <c r="H2" s="41"/>
     </row>
-    <row r="3" spans="1:21" ht="23">
+    <row r="3" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
@@ -1116,7 +1120,7 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:21" ht="23">
+    <row r="4" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
@@ -1148,7 +1152,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:21" ht="23">
+    <row r="5" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>115</v>
       </c>
@@ -1173,7 +1177,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:21" ht="46">
+    <row r="6" spans="1:21" ht="48" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>63</v>
       </c>
@@ -1202,7 +1206,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:21" ht="23">
+    <row r="7" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="23"/>
       <c r="C7" s="24" t="s">
@@ -1234,7 +1238,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" ht="23">
+    <row r="8" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24" t="s">
@@ -1266,7 +1270,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
     </row>
-    <row r="9" spans="1:21" ht="23">
+    <row r="9" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="24" t="s">
@@ -1297,7 +1301,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
     </row>
-    <row r="10" spans="1:21" ht="23">
+    <row r="10" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>70</v>
       </c>
@@ -1322,7 +1326,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
     </row>
-    <row r="11" spans="1:21" ht="23">
+    <row r="11" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24" t="s">
@@ -1349,7 +1353,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
     </row>
-    <row r="12" spans="1:21" ht="41">
+    <row r="12" spans="1:21" ht="43" x14ac:dyDescent="0.3">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="24" t="s">
@@ -1381,7 +1385,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="1:21" ht="23">
+    <row r="13" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="24" t="s">
@@ -1413,7 +1417,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="1:21" ht="23">
+    <row r="14" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24" t="s">
@@ -1442,7 +1446,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
     </row>
-    <row r="15" spans="1:21" ht="23">
+    <row r="15" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>74</v>
       </c>
@@ -1467,7 +1471,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" ht="23">
+    <row r="16" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>63</v>
       </c>
@@ -1494,7 +1498,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
     </row>
-    <row r="17" spans="1:21" ht="41">
+    <row r="17" spans="1:21" ht="43" x14ac:dyDescent="0.3">
       <c r="A17" s="22"/>
       <c r="B17" s="23"/>
       <c r="C17" s="24" t="s">
@@ -1528,7 +1532,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
     </row>
-    <row r="18" spans="1:21" ht="23">
+    <row r="18" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>63</v>
       </c>
@@ -1555,7 +1559,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
     </row>
-    <row r="19" spans="1:21" ht="23">
+    <row r="19" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>
@@ -1580,7 +1584,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
     </row>
-    <row r="20" spans="1:21" ht="23">
+    <row r="20" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>74</v>
       </c>
@@ -1605,7 +1609,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
     </row>
-    <row r="21" spans="1:21" ht="23">
+    <row r="21" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>70</v>
       </c>
@@ -1630,7 +1634,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
     </row>
-    <row r="22" spans="1:21" ht="23">
+    <row r="22" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="24" t="s">
@@ -1657,7 +1661,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
     </row>
-    <row r="23" spans="1:21" ht="23">
+    <row r="23" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="C23" s="24" t="s">
@@ -1688,7 +1692,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
     </row>
-    <row r="24" spans="1:21" ht="23">
+    <row r="24" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>74</v>
       </c>
@@ -1713,12 +1717,12 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
     </row>
-    <row r="25" spans="1:21" ht="23">
+    <row r="25" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1740,7 +1744,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="23">
+    <row r="26" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="22"/>
       <c r="B26" s="23"/>
       <c r="C26" s="24" t="s">
@@ -1769,7 +1773,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
     </row>
-    <row r="27" spans="1:21" ht="41">
+    <row r="27" spans="1:21" ht="43" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="23"/>
       <c r="C27" s="24" t="s">
@@ -1798,7 +1802,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
     </row>
-    <row r="28" spans="1:21" ht="23">
+    <row r="28" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="23"/>
       <c r="C28" s="24" t="s">
@@ -1827,7 +1831,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
     </row>
-    <row r="29" spans="1:21" ht="23">
+    <row r="29" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="24" t="s">
@@ -1856,7 +1860,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="23">
+    <row r="30" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="24" t="s">
@@ -1885,7 +1889,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
     </row>
-    <row r="31" spans="1:21" ht="41">
+    <row r="31" spans="1:21" ht="43" x14ac:dyDescent="0.3">
       <c r="A31" s="22"/>
       <c r="B31" s="23"/>
       <c r="C31" s="24" t="s">
@@ -1914,7 +1918,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
     </row>
-    <row r="32" spans="1:21" ht="23">
+    <row r="32" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>70</v>
       </c>
@@ -1939,7 +1943,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
     </row>
-    <row r="33" spans="1:21" ht="23">
+    <row r="33" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
       <c r="B33" s="23"/>
       <c r="C33" s="24" t="s">
@@ -1970,7 +1974,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
     </row>
-    <row r="34" spans="1:21" ht="23">
+    <row r="34" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>63</v>
       </c>
@@ -1997,7 +2001,7 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
     </row>
-    <row r="35" spans="1:21" ht="23">
+    <row r="35" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>80</v>
       </c>
@@ -2022,7 +2026,7 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
     </row>
-    <row r="36" spans="1:21" ht="23">
+    <row r="36" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>70</v>
       </c>
@@ -2047,7 +2051,7 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
     </row>
-    <row r="37" spans="1:21" ht="41">
+    <row r="37" spans="1:21" ht="43" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="24" t="s">
@@ -2076,7 +2080,7 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
     </row>
-    <row r="38" spans="1:21" ht="23">
+    <row r="38" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>74</v>
       </c>
@@ -2101,7 +2105,7 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
     </row>
-    <row r="39" spans="1:21" ht="23">
+    <row r="39" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>74</v>
       </c>
@@ -2129,11 +2133,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2141,18 +2140,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="34.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="23">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="23">
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="23">
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="23">
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="23">
+    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="23">
+    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="23">
+    <row r="11" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="23">
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="23">
+    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="23">
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="23">
+    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="23">
+    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="23">
+    <row r="17" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="23">
+    <row r="18" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="23">
+    <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="23">
+    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>3</v>
       </c>
@@ -2330,11 +2329,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2346,14 +2340,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23">
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2373,7 +2367,7 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="23">
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -2382,7 +2376,7 @@
       </c>
       <c r="C3" s="10"/>
     </row>
-    <row r="4" spans="1:3" ht="23">
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
@@ -2391,7 +2385,7 @@
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" ht="23">
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -2400,7 +2394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23">
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
@@ -2412,11 +2406,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2428,14 +2417,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -2446,7 +2435,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -2454,7 +2443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2489,11 +2478,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2505,14 +2489,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2523,7 +2507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2534,7 +2518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -2548,11 +2532,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2560,17 +2539,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="128.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2578,15 +2557,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="285">
+    <row r="2" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="270">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2597,11 +2576,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2613,7 +2587,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
@@ -2622,7 +2596,7 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>97</v>
       </c>
@@ -2639,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -2656,7 +2630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -2673,7 +2647,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2693,11 +2667,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2709,14 +2678,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>48</v>
       </c>
@@ -2730,7 +2699,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>111</v>
       </c>
@@ -2738,7 +2707,7 @@
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:4" ht="25">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>112</v>
       </c>
@@ -2751,10 +2720,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="460" windowWidth="48440" windowHeight="25740" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="choices" sheetId="4" r:id="rId5"/>
     <sheet name="calculates" sheetId="6" r:id="rId6"/>
     <sheet name="properties" sheetId="7" r:id="rId7"/>
-    <sheet name="initial" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="115">
   <si>
     <t>type</t>
   </si>
@@ -364,21 +363,6 @@
   </si>
   <si>
     <t>HIDDEN</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
   <si>
     <t>begin screen</t>
@@ -437,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -457,13 +441,6 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -613,10 +590,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -651,19 +628,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -673,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1026,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1081,15 +1055,15 @@
     </row>
     <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
+        <v>109</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="18"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -1101,7 +1075,7 @@
       <c r="E3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="20"/>
@@ -1130,7 +1104,7 @@
       <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="25"/>
       <c r="H4" s="26"/>
       <c r="I4" s="11" t="s">
@@ -1154,13 +1128,13 @@
     </row>
     <row r="5" spans="1:21" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="25"/>
       <c r="H5" s="26"/>
       <c r="I5" s="11"/>
@@ -1181,13 +1155,13 @@
       <c r="A6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="33"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="25"/>
       <c r="H6" s="26" t="s">
         <v>65</v>
@@ -1216,8 +1190,8 @@
       <c r="E7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>116</v>
+      <c r="F7" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="26"/>
@@ -1248,7 +1222,7 @@
       <c r="E8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="25"/>
@@ -1280,7 +1254,7 @@
       <c r="E9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
       <c r="I9" s="11" t="s">
@@ -1309,7 +1283,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
       <c r="I10" s="11"/>
@@ -1334,7 +1308,7 @@
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="25"/>
@@ -1363,7 +1337,7 @@
       <c r="E12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="25"/>
@@ -1395,7 +1369,7 @@
       <c r="E13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>68</v>
       </c>
       <c r="G13" s="25"/>
@@ -1427,7 +1401,7 @@
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="33"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="25"/>
       <c r="H14" s="26"/>
       <c r="I14" s="11" t="s">
@@ -1454,7 +1428,7 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="25"/>
       <c r="H15" s="26"/>
       <c r="I15" s="11"/>
@@ -1481,10 +1455,10 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="25"/>
       <c r="H16" s="26"/>
-      <c r="I16" s="35"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -1510,12 +1484,12 @@
       <c r="E17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="36"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="11" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1542,10 +1516,10 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="25"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="36"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -1567,10 +1541,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="25"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="36"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -1592,10 +1566,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="25"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="36"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -1617,10 +1591,10 @@
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="36"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -1642,12 +1616,12 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>81</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1673,12 +1647,12 @@
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="36"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -1700,10 +1674,10 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="33"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="25"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -1722,12 +1696,12 @@
         <v>63</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
       <c r="I25" s="11"/>
@@ -1754,7 +1728,7 @@
       <c r="E26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="25"/>
       <c r="H26" s="26"/>
       <c r="I26" s="11" t="s">
@@ -1783,7 +1757,7 @@
       <c r="E27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>85</v>
       </c>
       <c r="G27" s="25"/>
@@ -1812,7 +1786,7 @@
       <c r="E28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="25"/>
       <c r="H28" s="26"/>
       <c r="I28" s="11" t="s">
@@ -1841,7 +1815,7 @@
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>87</v>
       </c>
       <c r="G29" s="25"/>
@@ -1870,7 +1844,7 @@
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>88</v>
       </c>
       <c r="G30" s="25"/>
@@ -1899,7 +1873,7 @@
       <c r="E31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>90</v>
       </c>
       <c r="G31" s="25"/>
@@ -1926,7 +1900,7 @@
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="33"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="25"/>
       <c r="H32" s="26"/>
       <c r="I32" s="11"/>
@@ -1955,7 +1929,7 @@
       <c r="E33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G33" s="25"/>
@@ -1984,7 +1958,7 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="33"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="25"/>
       <c r="H34" s="26"/>
       <c r="I34" s="11"/>
@@ -2009,7 +1983,7 @@
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="33"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="25"/>
       <c r="H35" s="26"/>
       <c r="I35" s="11"/>
@@ -2034,7 +2008,7 @@
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="33"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
       <c r="I36" s="11"/>
@@ -2061,7 +2035,7 @@
       <c r="E37" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="32" t="s">
         <v>93</v>
       </c>
       <c r="G37" s="25"/>
@@ -2088,7 +2062,7 @@
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="27"/>
-      <c r="F38" s="34"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="25"/>
       <c r="H38" s="26"/>
       <c r="I38" s="11"/>
@@ -2113,7 +2087,7 @@
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="33"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="25"/>
       <c r="H39" s="26"/>
       <c r="I39" s="11"/>
@@ -2286,7 +2260,7 @@
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C17" t="b">
@@ -2297,7 +2271,7 @@
       <c r="A18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="42" t="s">
         <v>61</v>
       </c>
       <c r="C18" t="b">
@@ -2308,7 +2282,7 @@
       <c r="A19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>67</v>
       </c>
       <c r="C19" t="b">
@@ -2316,7 +2290,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2511,7 +2485,7 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
@@ -2522,7 +2496,7 @@
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
@@ -2539,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2562,7 +2536,7 @@
         <v>95</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="288" x14ac:dyDescent="0.2">
@@ -2570,7 +2544,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2668,57 +2642,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="29620" windowHeight="13480" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="29620" windowHeight="13480" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>item_pack_name</t>
   </si>
   <si>
-    <t>item_description</t>
-  </si>
-  <si>
     <t>custom_delivery_form_id</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>text.spanish</t>
+  </si>
+  <si>
+    <t>item_pack_description</t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -985,27 +985,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13">
         <v>20160822</v>
@@ -1014,28 +1014,28 @@
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,22 +1061,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1148,19 +1148,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -1168,63 +1168,63 @@
         <v>23</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1260,70 +1260,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
       <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="29620" windowHeight="13480" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="12920" yWindow="6760" windowWidth="29620" windowHeight="13480" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>beneficiary_entity_id</t>
   </si>
   <si>
-    <t>individual_id</t>
-  </si>
-  <si>
     <t>entitlement_id</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Beneficiary Entity ID</t>
   </si>
   <si>
-    <t>Individual ID</t>
-  </si>
-  <si>
     <t>Entitlement ID</t>
   </si>
   <si>
@@ -289,6 +283,12 @@
   </si>
   <si>
     <t>item_pack_description</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>Member ID</t>
   </si>
 </sst>
 </file>
@@ -841,11 +841,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -900,7 +904,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -908,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -916,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -924,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -932,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -940,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -948,7 +952,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -956,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -964,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -985,27 +989,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13">
         <v>20160822</v>
@@ -1014,28 +1018,28 @@
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -1049,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,22 +1065,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1092,7 +1096,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1100,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1116,115 +1120,115 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="F11" s="18" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="E12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1260,70 +1264,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>clause</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>Member ID</t>
+  </si>
+  <si>
+    <t>assigned_item_pack_code</t>
+  </si>
+  <si>
+    <t>Assigned Item Pack Barcode</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1060,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1238,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>clause</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Assigned Item Pack Barcode</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>Supply</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1066,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,16 +1251,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="6760" windowWidth="29620" windowHeight="13480" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="3200" windowWidth="28800" windowHeight="13480" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
-    <sheet name="table_specific_translations" sheetId="4" r:id="rId4"/>
-    <sheet name="properties" sheetId="5" r:id="rId5"/>
+    <sheet name="properties" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>clause</t>
   </si>
@@ -147,48 +146,6 @@
     <t>delivery_id</t>
   </si>
   <si>
-    <t>string_token</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Authorization ID</t>
-  </si>
-  <si>
-    <t>Authorization Type</t>
-  </si>
-  <si>
-    <t>Authorization Name</t>
-  </si>
-  <si>
-    <t>Authorization Description</t>
-  </si>
-  <si>
-    <t>Beneficiary Entity ID</t>
-  </si>
-  <si>
-    <t>Entitlement ID</t>
-  </si>
-  <si>
-    <t>Is Override</t>
-  </si>
-  <si>
-    <t>Item Pack ID</t>
-  </si>
-  <si>
-    <t>Item Pack Name</t>
-  </si>
-  <si>
-    <t>Custom Delivery Form ID</t>
-  </si>
-  <si>
-    <t>Custom Delivery Row ID</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
     <t>partition</t>
   </si>
   <si>
@@ -231,83 +188,17 @@
     <t>HIDDEN</t>
   </si>
   <si>
-    <t>Όνομα πακέτου στοιχείου</t>
-  </si>
-  <si>
-    <t>اسم الحزمة</t>
-  </si>
-  <si>
-    <t>نام بسته</t>
-  </si>
-  <si>
-    <t>Nombre del artículo</t>
-  </si>
-  <si>
-    <t>Item Pack Description</t>
-  </si>
-  <si>
-    <t>Περιγραφή πακέτου στοιχείου</t>
-  </si>
-  <si>
-    <t>وصف الحزمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> شرح بسته</t>
-  </si>
-  <si>
-    <t>Descripción del artículo</t>
-  </si>
-  <si>
-    <t>Αναγνωριστικό πακέτου στοιχείου</t>
-  </si>
-  <si>
-    <t>رقم الحزمة</t>
-  </si>
-  <si>
-    <t>شماره بسته</t>
-  </si>
-  <si>
-    <t>ID del artículo</t>
-  </si>
-  <si>
-    <t>text.greek</t>
-  </si>
-  <si>
-    <t>text.arabic</t>
-  </si>
-  <si>
-    <t>text.farsi</t>
-  </si>
-  <si>
-    <t>text.spanish</t>
-  </si>
-  <si>
     <t>item_pack_description</t>
   </si>
   <si>
     <t>member_id</t>
-  </si>
-  <si>
-    <t>Member ID</t>
-  </si>
-  <si>
-    <t>assigned_item_pack_code</t>
-  </si>
-  <si>
-    <t>Assigned Item Pack Barcode</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>Supply</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -330,15 +221,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +271,6 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -421,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -437,15 +315,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -956,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -1063,293 +935,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>57</v>
+      <c r="A2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3200" windowWidth="28800" windowHeight="13480" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="1240" windowWidth="28800" windowHeight="13480" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>clause</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>member_id</t>
+  </si>
+  <si>
+    <t>assigned_item_pack_code</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -295,11 +298,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -319,6 +333,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,9 +739,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -855,6 +871,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -866,7 +890,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
+++ b/app/config/tables/deliveries/forms/deliveries/deliveries.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/deliveries/forms/deliveries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\red-cross\redcross-app-designer\app\config\tables\deliveries\forms\deliveries\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>clause</t>
   </si>
@@ -83,12 +83,6 @@
     <t>authorization_type</t>
   </si>
   <si>
-    <t>authorization_name</t>
-  </si>
-  <si>
-    <t>authorization_description</t>
-  </si>
-  <si>
     <t>beneficiary_entity_id</t>
   </si>
   <si>
@@ -195,12 +189,15 @@
   </si>
   <si>
     <t>assigned_item_pack_code</t>
+  </si>
+  <si>
+    <t>distribution_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -412,6 +409,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -686,9 +686,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>11</v>
       </c>
@@ -739,19 +739,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -767,7 +767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -775,108 +775,100 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="6" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="8" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="9" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="10" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    <row r="11" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row r="13" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="14" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -890,64 +882,67 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="B3" s="13">
         <v>20160822</v>
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="14"/>
     </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -965,74 +960,74 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
